--- a/4_MC_Ising/Result/ALLdata.xlsx
+++ b/4_MC_Ising/Result/ALLdata.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\CODE\ComputationalPhysicsHomework\4_MC_Ising\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CED77ABC-E159-477E-9888-B65BFC65E972}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B46F606-6D2C-4D64-9EDE-2DDAAF40F62D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aveM" sheetId="1" r:id="rId1"/>
     <sheet name="aveE" sheetId="2" r:id="rId2"/>
     <sheet name="Cv" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="accept" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="aveE" localSheetId="1">aveE!$A$1:$C$42</definedName>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="aveE" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="aveE" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="936" sourceFile="E:\work\CODE\ComputationalPhysicsHomework\4_MC_Ising\Result\aveE.dat">
       <textFields count="22">
         <textField/>
@@ -56,7 +57,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="Cv" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Cv" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="936" sourceFile="E:\work\CODE\ComputationalPhysicsHomework\4_MC_Ising\Result\Cv.dat">
       <textFields count="22">
         <textField/>
@@ -113,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -763,11 +764,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="aveE" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="aveE" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Cv" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Cv" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1066,7 +1067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4093,7 +4094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7114,7 +7115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10135,11 +10136,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8F0DEC-2CC5-466E-BA51-D1D112BC77C0}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A42"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:X42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10147,218 +10161,3130 @@
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <f>AVERAGE(D2:W2)</f>
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="C2">
+        <f>STDEV(D2:W2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="E2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="F2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="H2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="I2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="J2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="K2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="L2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="M2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="N2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="O2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="P2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="Q2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="R2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="S2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="T2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="U2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="V2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="W2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="X2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <f t="shared" ref="B3:B42" si="0">AVERAGE(D3:W3)</f>
+        <v>0.53295000000000003</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C42" si="1">STDEV(D3:W3)</f>
+        <v>2.2360679774997917E-4</v>
+      </c>
+      <c r="D3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="G3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="H3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="J3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="K3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="L3">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="M3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="N3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="O3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="P3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="Q3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="R3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="S3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="T3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="U3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="V3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="W3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="X3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="I4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="J4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="K4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="L4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="M4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="N4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="O4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="P4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="Q4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="R4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="S4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="T4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="U4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="V4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="W4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="X4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.49995000000000001</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997917E-4</v>
+      </c>
+      <c r="D5">
+        <v>0.499</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.5</v>
+      </c>
+      <c r="N5">
+        <v>0.5</v>
+      </c>
+      <c r="O5">
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <v>0.5</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>0.5</v>
+      </c>
+      <c r="S5">
+        <v>0.5</v>
+      </c>
+      <c r="T5">
+        <v>0.5</v>
+      </c>
+      <c r="U5">
+        <v>0.5</v>
+      </c>
+      <c r="V5">
+        <v>0.5</v>
+      </c>
+      <c r="W5">
+        <v>0.5</v>
+      </c>
+      <c r="X5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.48104999999999992</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997922E-4</v>
+      </c>
+      <c r="D6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="H6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="J6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="K6">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="L6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="M6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="N6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="O6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="P6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="Q6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="R6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="S6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="T6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="U6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="V6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="W6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="X6">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.46105000000000007</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997914E-4</v>
+      </c>
+      <c r="D7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="E7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="H7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="K7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="L7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="M7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="N7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="O7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="P7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="Q7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="R7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="S7">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="T7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="U7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="V7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="W7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.43905000000000005</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997909E-4</v>
+      </c>
+      <c r="D8">
+        <v>0.439</v>
+      </c>
+      <c r="E8">
+        <v>0.439</v>
+      </c>
+      <c r="F8">
+        <v>0.439</v>
+      </c>
+      <c r="G8">
+        <v>0.439</v>
+      </c>
+      <c r="H8">
+        <v>0.439</v>
+      </c>
+      <c r="I8">
+        <v>0.44</v>
+      </c>
+      <c r="J8">
+        <v>0.439</v>
+      </c>
+      <c r="K8">
+        <v>0.439</v>
+      </c>
+      <c r="L8">
+        <v>0.439</v>
+      </c>
+      <c r="M8">
+        <v>0.439</v>
+      </c>
+      <c r="N8">
+        <v>0.439</v>
+      </c>
+      <c r="O8">
+        <v>0.439</v>
+      </c>
+      <c r="P8">
+        <v>0.439</v>
+      </c>
+      <c r="Q8">
+        <v>0.439</v>
+      </c>
+      <c r="R8">
+        <v>0.439</v>
+      </c>
+      <c r="S8">
+        <v>0.439</v>
+      </c>
+      <c r="T8">
+        <v>0.439</v>
+      </c>
+      <c r="U8">
+        <v>0.439</v>
+      </c>
+      <c r="V8">
+        <v>0.439</v>
+      </c>
+      <c r="W8">
+        <v>0.439</v>
+      </c>
+      <c r="X8">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.41489999999999999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>3.0779350562554648E-4</v>
+      </c>
+      <c r="D9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G9">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="H9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="I9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="J9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="L9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="M9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="N9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="O9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="P9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="Q9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="R9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="S9">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="T9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="U9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="V9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="W9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="X9">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.3881</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>4.4721359549995833E-4</v>
+      </c>
+      <c r="D10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="J10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="N10">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="P10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="R10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="S10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="T10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="U10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="V10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="W10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="X10">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>5.2314836378059741E-4</v>
+      </c>
+      <c r="D11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="I11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="J11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="K11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="L11">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="M11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="N11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="O11">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="P11">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="Q11">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="R11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="S11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="T11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="U11">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="V11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="W11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="X11">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.32295000000000013</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>6.863327411532604E-4</v>
+      </c>
+      <c r="D12">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="K12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="P12">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="R12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="S12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="T12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="U12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="V12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="W12">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="X12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.28185000000000004</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>1.0399898784932363E-3</v>
+      </c>
+      <c r="D13">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="E13">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="F13">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="G13">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="H13">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="I13">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="J13">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="K13">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="L13">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="M13">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="N13">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="O13">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="P13">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="Q13">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="R13">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="S13">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="T13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="U13">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="V13">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="W13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X13">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.22085000000000005</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>3.5135077688978125E-3</v>
+      </c>
+      <c r="D14">
+        <v>0.223</v>
+      </c>
+      <c r="E14">
+        <v>0.222</v>
+      </c>
+      <c r="F14">
+        <v>0.222</v>
+      </c>
+      <c r="G14">
+        <v>0.223</v>
+      </c>
+      <c r="H14">
+        <v>0.224</v>
+      </c>
+      <c r="I14">
+        <v>0.222</v>
+      </c>
+      <c r="J14">
+        <v>0.219</v>
+      </c>
+      <c r="K14">
+        <v>0.217</v>
+      </c>
+      <c r="L14">
+        <v>0.222</v>
+      </c>
+      <c r="M14">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.216</v>
+      </c>
+      <c r="O14">
+        <v>0.219</v>
+      </c>
+      <c r="P14">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q14">
+        <v>0.224</v>
+      </c>
+      <c r="R14">
+        <v>0.214</v>
+      </c>
+      <c r="S14">
+        <v>0.218</v>
+      </c>
+      <c r="T14">
+        <v>0.216</v>
+      </c>
+      <c r="U14">
+        <v>0.221</v>
+      </c>
+      <c r="V14">
+        <v>0.219</v>
+      </c>
+      <c r="W14">
+        <v>0.223</v>
+      </c>
+      <c r="X14">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.15124999999999997</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>1.2926920095594889E-3</v>
+      </c>
+      <c r="D15">
+        <v>0.15</v>
+      </c>
+      <c r="E15">
+        <v>0.153</v>
+      </c>
+      <c r="F15">
+        <v>0.151</v>
+      </c>
+      <c r="G15">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.151</v>
+      </c>
+      <c r="I15">
+        <v>0.15</v>
+      </c>
+      <c r="J15">
+        <v>0.152</v>
+      </c>
+      <c r="K15">
+        <v>0.152</v>
+      </c>
+      <c r="L15">
+        <v>0.151</v>
+      </c>
+      <c r="M15">
+        <v>0.154</v>
+      </c>
+      <c r="N15">
+        <v>0.153</v>
+      </c>
+      <c r="O15">
+        <v>0.151</v>
+      </c>
+      <c r="P15">
+        <v>0.151</v>
+      </c>
+      <c r="Q15">
+        <v>0.15</v>
+      </c>
+      <c r="R15">
+        <v>0.15</v>
+      </c>
+      <c r="S15">
+        <v>0.15</v>
+      </c>
+      <c r="T15">
+        <v>0.151</v>
+      </c>
+      <c r="U15">
+        <v>0.153</v>
+      </c>
+      <c r="V15">
+        <v>0.152</v>
+      </c>
+      <c r="W15">
+        <v>0.151</v>
+      </c>
+      <c r="X15">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.10850000000000001</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>5.1298917604257759E-4</v>
+      </c>
+      <c r="D16">
+        <v>0.109</v>
+      </c>
+      <c r="E16">
+        <v>0.108</v>
+      </c>
+      <c r="F16">
+        <v>0.109</v>
+      </c>
+      <c r="G16">
+        <v>0.109</v>
+      </c>
+      <c r="H16">
+        <v>0.108</v>
+      </c>
+      <c r="I16">
+        <v>0.108</v>
+      </c>
+      <c r="J16">
+        <v>0.108</v>
+      </c>
+      <c r="K16">
+        <v>0.108</v>
+      </c>
+      <c r="L16">
+        <v>0.109</v>
+      </c>
+      <c r="M16">
+        <v>0.109</v>
+      </c>
+      <c r="N16">
+        <v>0.108</v>
+      </c>
+      <c r="O16">
+        <v>0.109</v>
+      </c>
+      <c r="P16">
+        <v>0.109</v>
+      </c>
+      <c r="Q16">
+        <v>0.108</v>
+      </c>
+      <c r="R16">
+        <v>0.108</v>
+      </c>
+      <c r="S16">
+        <v>0.108</v>
+      </c>
+      <c r="T16">
+        <v>0.109</v>
+      </c>
+      <c r="U16">
+        <v>0.109</v>
+      </c>
+      <c r="V16">
+        <v>0.109</v>
+      </c>
+      <c r="W16">
+        <v>0.108</v>
+      </c>
+      <c r="X16">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>7.9049999999999981E-2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997919E-4</v>
+      </c>
+      <c r="D17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.08</v>
+      </c>
+      <c r="G17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="I17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="J17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="K17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="L17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="M17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="N17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="O17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="P17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="Q17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="R17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="S17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="T17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="U17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="V17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="W17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>5.7650000000000021E-2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>4.8936048492959332E-4</v>
+      </c>
+      <c r="D18">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F18">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G18">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="L18">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="M18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="N18">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="O18">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="P18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="Q18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="R18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="S18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="U18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="V18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="W18">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="X18">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>4.105000000000001E-2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997917E-4</v>
+      </c>
+      <c r="D19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="K19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="P19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Q19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="R19">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="T19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="U19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="V19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="W19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="X19">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000015E-2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>1.4238309865648918E-17</v>
+      </c>
+      <c r="D20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="L20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="N20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="O20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="Q20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="R20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="S20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="T20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="U20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="V20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="W20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="X20">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>3.5595774664122295E-18</v>
+      </c>
+      <c r="D21">
+        <v>0.02</v>
+      </c>
+      <c r="E21">
+        <v>0.02</v>
+      </c>
+      <c r="F21">
+        <v>0.02</v>
+      </c>
+      <c r="G21">
+        <v>0.02</v>
+      </c>
+      <c r="H21">
+        <v>0.02</v>
+      </c>
+      <c r="I21">
+        <v>0.02</v>
+      </c>
+      <c r="J21">
+        <v>0.02</v>
+      </c>
+      <c r="K21">
+        <v>0.02</v>
+      </c>
+      <c r="L21">
+        <v>0.02</v>
+      </c>
+      <c r="M21">
+        <v>0.02</v>
+      </c>
+      <c r="N21">
+        <v>0.02</v>
+      </c>
+      <c r="O21">
+        <v>0.02</v>
+      </c>
+      <c r="P21">
+        <v>0.02</v>
+      </c>
+      <c r="Q21">
+        <v>0.02</v>
+      </c>
+      <c r="R21">
+        <v>0.02</v>
+      </c>
+      <c r="S21">
+        <v>0.02</v>
+      </c>
+      <c r="T21">
+        <v>0.02</v>
+      </c>
+      <c r="U21">
+        <v>0.02</v>
+      </c>
+      <c r="V21">
+        <v>0.02</v>
+      </c>
+      <c r="W21">
+        <v>0.02</v>
+      </c>
+      <c r="X21">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1.3000000000000006E-2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>7.1191549328244589E-18</v>
+      </c>
+      <c r="D22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="P22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="R22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="S22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="T22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="U22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="V22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="X22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>3.5595774664122295E-18</v>
+      </c>
+      <c r="D23">
+        <v>0.02</v>
+      </c>
+      <c r="E23">
+        <v>0.02</v>
+      </c>
+      <c r="F23">
+        <v>0.02</v>
+      </c>
+      <c r="G23">
+        <v>0.02</v>
+      </c>
+      <c r="H23">
+        <v>0.02</v>
+      </c>
+      <c r="I23">
+        <v>0.02</v>
+      </c>
+      <c r="J23">
+        <v>0.02</v>
+      </c>
+      <c r="K23">
+        <v>0.02</v>
+      </c>
+      <c r="L23">
+        <v>0.02</v>
+      </c>
+      <c r="M23">
+        <v>0.02</v>
+      </c>
+      <c r="N23">
+        <v>0.02</v>
+      </c>
+      <c r="O23">
+        <v>0.02</v>
+      </c>
+      <c r="P23">
+        <v>0.02</v>
+      </c>
+      <c r="Q23">
+        <v>0.02</v>
+      </c>
+      <c r="R23">
+        <v>0.02</v>
+      </c>
+      <c r="S23">
+        <v>0.02</v>
+      </c>
+      <c r="T23">
+        <v>0.02</v>
+      </c>
+      <c r="U23">
+        <v>0.02</v>
+      </c>
+      <c r="V23">
+        <v>0.02</v>
+      </c>
+      <c r="W23">
+        <v>0.02</v>
+      </c>
+      <c r="X23">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000015E-2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>1.4238309865648918E-17</v>
+      </c>
+      <c r="D24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="L24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="N24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="O24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="Q24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="R24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="S24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="T24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="U24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="V24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="W24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="X24">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>4.105000000000001E-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997914E-4</v>
+      </c>
+      <c r="D25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="K25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="N25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="P25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Q25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="R25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="T25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="U25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="V25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="W25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="X25">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>5.7600000000000026E-2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>5.0262468995003506E-4</v>
+      </c>
+      <c r="D26">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E26">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F26">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G26">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H26">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I26">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J26">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K26">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="L26">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M26">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="N26">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="O26">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="P26">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="Q26">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="R26">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="S26">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="T26">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="U26">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="V26">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="W26">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="X26">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>7.8999999999999987E-2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>1.4238309865648918E-17</v>
+      </c>
+      <c r="D27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="I27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="J27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="K27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="L27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="M27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="N27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="O27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="P27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="Q27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="R27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="S27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="T27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="U27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="V27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="W27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="X27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0.10820000000000003</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>5.2314836378059731E-4</v>
+      </c>
+      <c r="D28">
+        <v>0.109</v>
+      </c>
+      <c r="E28">
+        <v>0.108</v>
+      </c>
+      <c r="F28">
+        <v>0.109</v>
+      </c>
+      <c r="G28">
+        <v>0.109</v>
+      </c>
+      <c r="H28">
+        <v>0.108</v>
+      </c>
+      <c r="I28">
+        <v>0.108</v>
+      </c>
+      <c r="J28">
+        <v>0.108</v>
+      </c>
+      <c r="K28">
+        <v>0.108</v>
+      </c>
+      <c r="L28">
+        <v>0.109</v>
+      </c>
+      <c r="M28">
+        <v>0.108</v>
+      </c>
+      <c r="N28">
+        <v>0.107</v>
+      </c>
+      <c r="O28">
+        <v>0.108</v>
+      </c>
+      <c r="P28">
+        <v>0.108</v>
+      </c>
+      <c r="Q28">
+        <v>0.109</v>
+      </c>
+      <c r="R28">
+        <v>0.108</v>
+      </c>
+      <c r="S28">
+        <v>0.108</v>
+      </c>
+      <c r="T28">
+        <v>0.108</v>
+      </c>
+      <c r="U28">
+        <v>0.108</v>
+      </c>
+      <c r="V28">
+        <v>0.108</v>
+      </c>
+      <c r="W28">
+        <v>0.108</v>
+      </c>
+      <c r="X28">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.15034999999999993</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>1.1821033884786192E-3</v>
+      </c>
+      <c r="D29">
+        <v>0.153</v>
+      </c>
+      <c r="E29">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F29">
+        <v>0.15</v>
+      </c>
+      <c r="G29">
+        <v>0.15</v>
+      </c>
+      <c r="H29">
+        <v>0.152</v>
+      </c>
+      <c r="I29">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="J29">
+        <v>0.151</v>
+      </c>
+      <c r="K29">
+        <v>0.15</v>
+      </c>
+      <c r="L29">
+        <v>0.151</v>
+      </c>
+      <c r="M29">
+        <v>0.15</v>
+      </c>
+      <c r="N29">
+        <v>0.15</v>
+      </c>
+      <c r="O29">
+        <v>0.152</v>
+      </c>
+      <c r="P29">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="Q29">
+        <v>0.151</v>
+      </c>
+      <c r="R29">
+        <v>0.15</v>
+      </c>
+      <c r="S29">
+        <v>0.151</v>
+      </c>
+      <c r="T29">
+        <v>0.15</v>
+      </c>
+      <c r="U29">
+        <v>0.15</v>
+      </c>
+      <c r="V29">
+        <v>0.151</v>
+      </c>
+      <c r="W29">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="X29">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.21945000000000001</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>3.7201443095947976E-3</v>
+      </c>
+      <c r="D30">
+        <v>0.214</v>
+      </c>
+      <c r="E30">
+        <v>0.222</v>
+      </c>
+      <c r="F30">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="G30">
+        <v>0.215</v>
+      </c>
+      <c r="H30">
+        <v>0.22</v>
+      </c>
+      <c r="I30">
+        <v>0.219</v>
+      </c>
+      <c r="J30">
+        <v>0.221</v>
+      </c>
+      <c r="K30">
+        <v>0.215</v>
+      </c>
+      <c r="L30">
+        <v>0.218</v>
+      </c>
+      <c r="M30">
+        <v>0.22</v>
+      </c>
+      <c r="N30">
+        <v>0.219</v>
+      </c>
+      <c r="O30">
+        <v>0.216</v>
+      </c>
+      <c r="P30">
+        <v>0.222</v>
+      </c>
+      <c r="Q30">
+        <v>0.219</v>
+      </c>
+      <c r="R30">
+        <v>0.219</v>
+      </c>
+      <c r="S30">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="T30">
+        <v>0.219</v>
+      </c>
+      <c r="U30">
+        <v>0.221</v>
+      </c>
+      <c r="V30">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="W30">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="X30">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.28155000000000008</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>1.1459310165698408E-3</v>
+      </c>
+      <c r="D31">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="E31">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="F31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G31">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="H31">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="I31">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="J31">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="K31">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="L31">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="M31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O31">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="P31">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="Q31">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="R31">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="S31">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="T31">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="U31">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="V31">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="W31">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="X31">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0.32325000000000004</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>6.3866637365850569E-4</v>
+      </c>
+      <c r="D32">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E32">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="F32">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="G32">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="H32">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="J32">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="K32">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="L32">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="N32">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="P32">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Q32">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="R32">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="S32">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="T32">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="U32">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="V32">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="W32">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="X32">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0.35794999999999988</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>5.1041778553404091E-4</v>
+      </c>
+      <c r="D33">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="E33">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F33">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G33">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="H33">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="I33">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="J33">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="K33">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="L33">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="M33">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="N33">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="O33">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="P33">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="Q33">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="R33">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="S33">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="T33">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="U33">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="V33">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="W33">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="X33">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0.38814999999999994</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>3.6634754853252349E-4</v>
+      </c>
+      <c r="D34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="F34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="G34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="H34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="J34">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="K34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="L34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="M34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="N34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="P34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="Q34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="R34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="S34">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="T34">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="U34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="V34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="W34">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="X34">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0.41505000000000003</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997906E-4</v>
+      </c>
+      <c r="D35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="E35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="F35">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="H35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="I35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="J35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="K35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="L35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="M35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="N35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="O35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="P35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="Q35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="R35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="S35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="T35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="U35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="V35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="W35">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="X35">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0.43909999999999999</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>3.0779350562554648E-4</v>
+      </c>
+      <c r="D36">
+        <v>0.439</v>
+      </c>
+      <c r="E36">
+        <v>0.439</v>
+      </c>
+      <c r="F36">
+        <v>0.439</v>
+      </c>
+      <c r="G36">
+        <v>0.439</v>
+      </c>
+      <c r="H36">
+        <v>0.439</v>
+      </c>
+      <c r="I36">
+        <v>0.439</v>
+      </c>
+      <c r="J36">
+        <v>0.439</v>
+      </c>
+      <c r="K36">
+        <v>0.439</v>
+      </c>
+      <c r="L36">
+        <v>0.439</v>
+      </c>
+      <c r="M36">
+        <v>0.439</v>
+      </c>
+      <c r="N36">
+        <v>0.439</v>
+      </c>
+      <c r="O36">
+        <v>0.44</v>
+      </c>
+      <c r="P36">
+        <v>0.439</v>
+      </c>
+      <c r="Q36">
+        <v>0.44</v>
+      </c>
+      <c r="R36">
+        <v>0.439</v>
+      </c>
+      <c r="S36">
+        <v>0.439</v>
+      </c>
+      <c r="T36">
+        <v>0.439</v>
+      </c>
+      <c r="U36">
+        <v>0.439</v>
+      </c>
+      <c r="V36">
+        <v>0.439</v>
+      </c>
+      <c r="W36">
+        <v>0.439</v>
+      </c>
+      <c r="X36">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0.46100000000000013</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>1.1390647892519134E-16</v>
+      </c>
+      <c r="D37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="E37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="F37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="G37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="H37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="I37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="J37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="K37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="L37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="M37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="N37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="O37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="P37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="Q37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="R37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="S37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="T37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="U37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="V37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="W37">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="X37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0.48104999999999992</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997919E-4</v>
+      </c>
+      <c r="D38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="F38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="G38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="H38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="I38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="J38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="K38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="L38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="M38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="N38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="O38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="P38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="Q38">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="R38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="S38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="T38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="U38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="V38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="W38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="X38">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0.49990000000000007</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>3.0779350562554648E-4</v>
+      </c>
+      <c r="D39">
+        <v>0.5</v>
+      </c>
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+      <c r="F39">
+        <v>0.5</v>
+      </c>
+      <c r="G39">
+        <v>0.5</v>
+      </c>
+      <c r="H39">
+        <v>0.499</v>
+      </c>
+      <c r="I39">
+        <v>0.5</v>
+      </c>
+      <c r="J39">
+        <v>0.5</v>
+      </c>
+      <c r="K39">
+        <v>0.5</v>
+      </c>
+      <c r="L39">
+        <v>0.5</v>
+      </c>
+      <c r="M39">
+        <v>0.5</v>
+      </c>
+      <c r="N39">
+        <v>0.5</v>
+      </c>
+      <c r="O39">
+        <v>0.5</v>
+      </c>
+      <c r="P39">
+        <v>0.5</v>
+      </c>
+      <c r="Q39">
+        <v>0.5</v>
+      </c>
+      <c r="R39">
+        <v>0.5</v>
+      </c>
+      <c r="S39">
+        <v>0.499</v>
+      </c>
+      <c r="T39">
+        <v>0.5</v>
+      </c>
+      <c r="U39">
+        <v>0.5</v>
+      </c>
+      <c r="V39">
+        <v>0.5</v>
+      </c>
+      <c r="W39">
+        <v>0.5</v>
+      </c>
+      <c r="X39">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="E40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="F40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="G40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="H40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="I40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="J40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="K40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="L40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="M40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="N40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="O40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="P40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="Q40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="R40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="S40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="T40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="U40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="V40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="W40">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="X40">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0.53295000000000003</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997917E-4</v>
+      </c>
+      <c r="D41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="F41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="G41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="H41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="I41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="J41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="K41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="L41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="M41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="N41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="O41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="P41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="Q41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="R41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="S41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="T41">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="U41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="V41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="W41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="X41">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0.54790000000000005</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>3.0779350562554653E-4</v>
+      </c>
+      <c r="D42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="E42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="F42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="H42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="I42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="J42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="K42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="L42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="M42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="N42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="O42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="P42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="Q42">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="R42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="S42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="T42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="U42">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="V42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="W42">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="X42">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>